--- a/Parse Table.xlsx
+++ b/Parse Table.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheyril/Documents/sheyril/COLLEGE 4-2/Compiler Construction/Ass-2/Compiler-Construction/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BA7A3-6081-254D-A8BC-85A39198C5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t>$</t>
   </si>
@@ -53,9 +62,6 @@
   </si>
   <si>
     <t>blankLine</t>
-  </si>
-  <si>
-    <t>:=</t>
   </si>
   <si>
     <t>in</t>
@@ -316,60 +322,67 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -559,20 +572,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,10 +639,10 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -633,10 +651,10 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -648,361 +666,361 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="O21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -1011,38 +1029,35 @@
       <c r="V25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>